--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H2">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I2">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J2">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.74034076733355</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N2">
-        <v>1.74034076733355</v>
+        <v>6.991456</v>
       </c>
       <c r="O2">
-        <v>0.02894206868094597</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P2">
-        <v>0.02894206868094597</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q2">
-        <v>0.5673527763579789</v>
+        <v>0.5047675866311111</v>
       </c>
       <c r="R2">
-        <v>0.5673527763579789</v>
+        <v>4.542908279680001</v>
       </c>
       <c r="S2">
-        <v>0.008340180161504991</v>
+        <v>0.004676165702825861</v>
       </c>
       <c r="T2">
-        <v>0.008340180161504991</v>
+        <v>0.004676165702825862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H3">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I3">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J3">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.1574503250236</v>
+        <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>29.1574503250236</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4848917784998182</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="P3">
-        <v>0.4848917784998182</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="Q3">
-        <v>9.505357056461737</v>
+        <v>6.319925540713334</v>
       </c>
       <c r="R3">
-        <v>9.505357056461737</v>
+        <v>56.87932986642001</v>
       </c>
       <c r="S3">
-        <v>0.1397303294419822</v>
+        <v>0.05854777493764571</v>
       </c>
       <c r="T3">
-        <v>0.1397303294419822</v>
+        <v>0.05854777493764572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H4">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I4">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J4">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.211868143211698</v>
+        <v>0.3937893333333333</v>
       </c>
       <c r="N4">
-        <v>0.211868143211698</v>
+        <v>1.181368</v>
       </c>
       <c r="O4">
-        <v>0.003523391778917188</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="P4">
-        <v>0.003523391778917188</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="Q4">
-        <v>0.06906921996497063</v>
+        <v>0.08529214433777778</v>
       </c>
       <c r="R4">
-        <v>0.06906921996497063</v>
+        <v>0.76762929904</v>
       </c>
       <c r="S4">
-        <v>0.001015329019486469</v>
+        <v>0.0007901462190444997</v>
       </c>
       <c r="T4">
-        <v>0.001015329019486469</v>
+        <v>0.0007901462190444999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H5">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I5">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J5">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.163356229173161</v>
+        <v>0.4229803333333333</v>
       </c>
       <c r="N5">
-        <v>9.163356229173161</v>
+        <v>1.268941</v>
       </c>
       <c r="O5">
-        <v>0.152387676201505</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="P5">
-        <v>0.152387676201505</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="Q5">
-        <v>2.987263009039293</v>
+        <v>0.09161472033111111</v>
       </c>
       <c r="R5">
-        <v>2.987263009039293</v>
+        <v>0.8245324829800001</v>
       </c>
       <c r="S5">
-        <v>0.04391326300563866</v>
+        <v>0.0008487185477688124</v>
       </c>
       <c r="T5">
-        <v>0.04391326300563866</v>
+        <v>0.0008487185477688127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.32600096889487</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H6">
-        <v>0.32600096889487</v>
+        <v>0.64978</v>
       </c>
       <c r="I6">
-        <v>0.2881680730374244</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J6">
-        <v>0.2881680730374244</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.8588564660058</v>
+        <v>9.749056666666668</v>
       </c>
       <c r="N6">
-        <v>19.8588564660058</v>
+        <v>29.24717</v>
       </c>
       <c r="O6">
-        <v>0.3302550848388138</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="P6">
-        <v>0.3302550848388138</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="Q6">
-        <v>6.474006449062045</v>
+        <v>2.111580680288889</v>
       </c>
       <c r="R6">
-        <v>6.474006449062045</v>
+        <v>19.0042261226</v>
       </c>
       <c r="S6">
-        <v>0.09516897140881209</v>
+        <v>0.01956167831975449</v>
       </c>
       <c r="T6">
-        <v>0.09516897140881209</v>
+        <v>0.0195616783197545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.178818577498269</v>
+        <v>0.2165933333333333</v>
       </c>
       <c r="H7">
-        <v>0.178818577498269</v>
+        <v>0.64978</v>
       </c>
       <c r="I7">
-        <v>0.1580664164148145</v>
+        <v>0.127917128882738</v>
       </c>
       <c r="J7">
-        <v>0.1580664164148145</v>
+        <v>0.1279171288827381</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.74034076733355</v>
+        <v>21.67565866666666</v>
       </c>
       <c r="N7">
-        <v>1.74034076733355</v>
+        <v>65.02697599999999</v>
       </c>
       <c r="O7">
-        <v>0.02894206868094597</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="P7">
-        <v>0.02894206868094597</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="Q7">
-        <v>0.3112052603768313</v>
+        <v>4.694803162808888</v>
       </c>
       <c r="R7">
-        <v>0.3112052603768313</v>
+        <v>42.25322846528</v>
       </c>
       <c r="S7">
-        <v>0.004574769080028566</v>
+        <v>0.04349264515569866</v>
       </c>
       <c r="T7">
-        <v>0.004574769080028566</v>
+        <v>0.04349264515569867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H8">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I8">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J8">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.1574503250236</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N8">
-        <v>29.1574503250236</v>
+        <v>6.991456</v>
       </c>
       <c r="O8">
-        <v>0.4848917784998182</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P8">
-        <v>0.4848917784998182</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q8">
-        <v>5.213893790597161</v>
+        <v>0.8237294617777778</v>
       </c>
       <c r="R8">
-        <v>5.213893790597161</v>
+        <v>7.413565156000001</v>
       </c>
       <c r="S8">
-        <v>0.07664510577647225</v>
+        <v>0.007631027743442354</v>
       </c>
       <c r="T8">
-        <v>0.07664510577647225</v>
+        <v>0.007631027743442355</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H9">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I9">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J9">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.211868143211698</v>
+        <v>29.178763</v>
       </c>
       <c r="N9">
-        <v>0.211868143211698</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O9">
-        <v>0.003523391778917188</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="P9">
-        <v>0.003523391778917188</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="Q9">
-        <v>0.03788595998631537</v>
+        <v>10.31347693870834</v>
       </c>
       <c r="R9">
-        <v>0.03788595998631537</v>
+        <v>92.82129244837502</v>
       </c>
       <c r="S9">
-        <v>0.0005569299121188583</v>
+        <v>0.09554402543861934</v>
       </c>
       <c r="T9">
-        <v>0.0005569299121188583</v>
+        <v>0.09554402543861935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H10">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I10">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J10">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.163356229173161</v>
+        <v>0.3937893333333333</v>
       </c>
       <c r="N10">
-        <v>9.163356229173161</v>
+        <v>1.181368</v>
       </c>
       <c r="O10">
-        <v>0.152387676201505</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="P10">
-        <v>0.152387676201505</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="Q10">
-        <v>1.638578326010647</v>
+        <v>0.1391881214444445</v>
       </c>
       <c r="R10">
-        <v>1.638578326010647</v>
+        <v>1.252693093</v>
       </c>
       <c r="S10">
-        <v>0.024087373882953</v>
+        <v>0.001289438420725956</v>
       </c>
       <c r="T10">
-        <v>0.024087373882953</v>
+        <v>0.001289438420725956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.178818577498269</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H11">
-        <v>0.178818577498269</v>
+        <v>1.060375</v>
       </c>
       <c r="I11">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J11">
-        <v>0.1580664164148145</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>19.8588564660058</v>
+        <v>0.4229803333333333</v>
       </c>
       <c r="N11">
-        <v>19.8588564660058</v>
+        <v>1.268941</v>
       </c>
       <c r="O11">
-        <v>0.3302550848388138</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="P11">
-        <v>0.3302550848388138</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="Q11">
-        <v>3.551132463993458</v>
+        <v>0.1495059236527778</v>
       </c>
       <c r="R11">
-        <v>3.551132463993458</v>
+        <v>1.345553312875</v>
       </c>
       <c r="S11">
-        <v>0.05220223776324183</v>
+        <v>0.001385022515451929</v>
       </c>
       <c r="T11">
-        <v>0.05220223776324183</v>
+        <v>0.001385022515451929</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.170276258149697</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H12">
-        <v>0.170276258149697</v>
+        <v>1.060375</v>
       </c>
       <c r="I12">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J12">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.74034076733355</v>
+        <v>9.749056666666668</v>
       </c>
       <c r="N12">
-        <v>1.74034076733355</v>
+        <v>29.24717</v>
       </c>
       <c r="O12">
-        <v>0.02894206868094597</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="P12">
-        <v>0.02894206868094597</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="Q12">
-        <v>0.2963387137669293</v>
+        <v>3.445885320972223</v>
       </c>
       <c r="R12">
-        <v>0.2963387137669293</v>
+        <v>31.01296788875</v>
       </c>
       <c r="S12">
-        <v>0.00435622837260148</v>
+        <v>0.03192267328681965</v>
       </c>
       <c r="T12">
-        <v>0.00435622837260148</v>
+        <v>0.03192267328681965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.170276258149697</v>
+        <v>0.3534583333333334</v>
       </c>
       <c r="H13">
-        <v>0.170276258149697</v>
+        <v>1.060375</v>
       </c>
       <c r="I13">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="J13">
-        <v>0.150515445893797</v>
+        <v>0.2087477693050469</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.1574503250236</v>
+        <v>21.67565866666666</v>
       </c>
       <c r="N13">
-        <v>29.1574503250236</v>
+        <v>65.02697599999999</v>
       </c>
       <c r="O13">
-        <v>0.4848917784998182</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="P13">
-        <v>0.4848917784998182</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="Q13">
-        <v>4.964821538530685</v>
+        <v>7.661442186222222</v>
       </c>
       <c r="R13">
-        <v>4.964821538530685</v>
+        <v>68.952979676</v>
       </c>
       <c r="S13">
-        <v>0.0729837022511364</v>
+        <v>0.07097558189998764</v>
       </c>
       <c r="T13">
-        <v>0.0729837022511364</v>
+        <v>0.07097558189998765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H14">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I14">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J14">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.211868143211698</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N14">
-        <v>0.211868143211698</v>
+        <v>6.991456</v>
       </c>
       <c r="O14">
-        <v>0.003523391778917188</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P14">
-        <v>0.003523391778917188</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q14">
-        <v>0.03607611464721206</v>
+        <v>0.4805841403271111</v>
       </c>
       <c r="R14">
-        <v>0.03607611464721206</v>
+        <v>4.325257262944</v>
       </c>
       <c r="S14">
-        <v>0.0005303248846622592</v>
+        <v>0.004452130314702693</v>
       </c>
       <c r="T14">
-        <v>0.0005303248846622592</v>
+        <v>0.004452130314702694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H15">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I15">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J15">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.163356229173161</v>
+        <v>29.178763</v>
       </c>
       <c r="N15">
-        <v>9.163356229173161</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O15">
-        <v>0.152387676201505</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="P15">
-        <v>0.152387676201505</v>
+        <v>0.4577008212193115</v>
       </c>
       <c r="Q15">
-        <v>1.560302010796323</v>
+        <v>6.017137517062334</v>
       </c>
       <c r="R15">
-        <v>1.560302010796323</v>
+        <v>54.154237653561</v>
       </c>
       <c r="S15">
-        <v>0.02293669903218908</v>
+        <v>0.05574274741820244</v>
       </c>
       <c r="T15">
-        <v>0.02293669903218908</v>
+        <v>0.05574274741820245</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.170276258149697</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H16">
-        <v>0.170276258149697</v>
+        <v>0.618649</v>
       </c>
       <c r="I16">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J16">
-        <v>0.150515445893797</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.8588564660058</v>
+        <v>0.3937893333333333</v>
       </c>
       <c r="N16">
-        <v>19.8588564660058</v>
+        <v>1.181368</v>
       </c>
       <c r="O16">
-        <v>0.3302550848388138</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="P16">
-        <v>0.3302550848388138</v>
+        <v>0.006177016525822971</v>
       </c>
       <c r="Q16">
-        <v>3.381491770163383</v>
+        <v>0.08120579242577777</v>
       </c>
       <c r="R16">
-        <v>3.381491770163383</v>
+        <v>0.730852131832</v>
       </c>
       <c r="S16">
-        <v>0.04970849135320782</v>
+        <v>0.0007522902648060278</v>
       </c>
       <c r="T16">
-        <v>0.04970849135320782</v>
+        <v>0.0007522902648060279</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.45619179945392</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H17">
-        <v>0.45619179945392</v>
+        <v>0.618649</v>
       </c>
       <c r="I17">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J17">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.74034076733355</v>
+        <v>0.4229803333333333</v>
       </c>
       <c r="N17">
-        <v>1.74034076733355</v>
+        <v>1.268941</v>
       </c>
       <c r="O17">
-        <v>0.02894206868094597</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="P17">
-        <v>0.02894206868094597</v>
+        <v>0.006634909297775398</v>
       </c>
       <c r="Q17">
-        <v>0.7939291863129081</v>
+        <v>0.08722545341211112</v>
       </c>
       <c r="R17">
-        <v>0.7939291863129081</v>
+        <v>0.785029080709</v>
       </c>
       <c r="S17">
-        <v>0.01167089106681093</v>
+        <v>0.0008080563896374589</v>
       </c>
       <c r="T17">
-        <v>0.01167089106681093</v>
+        <v>0.000808056389637459</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.45619179945392</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H18">
-        <v>0.45619179945392</v>
+        <v>0.618649</v>
       </c>
       <c r="I18">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J18">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.1574503250236</v>
+        <v>9.749056666666668</v>
       </c>
       <c r="N18">
-        <v>29.1574503250236</v>
+        <v>29.24717</v>
       </c>
       <c r="O18">
-        <v>0.4848917784998182</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="P18">
-        <v>0.4848917784998182</v>
+        <v>0.1529246199520842</v>
       </c>
       <c r="Q18">
-        <v>13.3013897312608</v>
+        <v>2.010414719258889</v>
       </c>
       <c r="R18">
-        <v>13.3013897312608</v>
+        <v>18.09373247333</v>
       </c>
       <c r="S18">
-        <v>0.1955326410302274</v>
+        <v>0.01862447710123087</v>
       </c>
       <c r="T18">
-        <v>0.1955326410302274</v>
+        <v>0.01862447710123087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.45619179945392</v>
+        <v>0.2062163333333333</v>
       </c>
       <c r="H19">
-        <v>0.45619179945392</v>
+        <v>0.618649</v>
       </c>
       <c r="I19">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="J19">
-        <v>0.4032500646539642</v>
+        <v>0.1217886113241051</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.211868143211698</v>
+        <v>21.67565866666666</v>
       </c>
       <c r="N19">
-        <v>0.211868143211698</v>
+        <v>65.02697599999999</v>
       </c>
       <c r="O19">
-        <v>0.003523391778917188</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="P19">
-        <v>0.003523391778917188</v>
+        <v>0.3400064208411719</v>
       </c>
       <c r="Q19">
-        <v>0.09665250949870534</v>
+        <v>4.469874852824888</v>
       </c>
       <c r="R19">
-        <v>0.09665250949870534</v>
+        <v>40.228873675424</v>
       </c>
       <c r="S19">
-        <v>0.001420807962649602</v>
+        <v>0.04140890983552559</v>
       </c>
       <c r="T19">
-        <v>0.001420807962649602</v>
+        <v>0.0414089098355256</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.45619179945392</v>
+        <v>0.186068</v>
       </c>
       <c r="H20">
-        <v>0.45619179945392</v>
+        <v>0.5582039999999999</v>
       </c>
       <c r="I20">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="J20">
-        <v>0.4032500646539642</v>
+        <v>0.1098892748481946</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.163356229173161</v>
+        <v>2.330485333333333</v>
       </c>
       <c r="N20">
-        <v>9.163356229173161</v>
+        <v>6.991456</v>
       </c>
       <c r="O20">
-        <v>0.152387676201505</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="P20">
-        <v>0.152387676201505</v>
+        <v>0.03655621216383393</v>
       </c>
       <c r="Q20">
-        <v>4.180247967223791</v>
+        <v>0.4336287450026666</v>
       </c>
       <c r="R20">
-        <v>4.180247967223791</v>
+        <v>3.902658705024</v>
       </c>
       <c r="S20">
-        <v>0.06145034028072423</v>
+        <v>0.004017135645880462</v>
       </c>
       <c r="T20">
-        <v>0.06145034028072423</v>
+        <v>0.004017135645880463</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.186068</v>
+      </c>
+      <c r="H21">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J21">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>29.178763</v>
+      </c>
+      <c r="N21">
+        <v>87.53628900000001</v>
+      </c>
+      <c r="O21">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="P21">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="Q21">
+        <v>5.429234073884</v>
+      </c>
+      <c r="R21">
+        <v>48.863106664956</v>
+      </c>
+      <c r="S21">
+        <v>0.05029641134121331</v>
+      </c>
+      <c r="T21">
+        <v>0.05029641134121331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.186068</v>
+      </c>
+      <c r="H22">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J22">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3937893333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.181368</v>
+      </c>
+      <c r="O22">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="P22">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="Q22">
+        <v>0.07327159367466665</v>
+      </c>
+      <c r="R22">
+        <v>0.6594443430719998</v>
+      </c>
+      <c r="S22">
+        <v>0.0006787878667480007</v>
+      </c>
+      <c r="T22">
+        <v>0.0006787878667480008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.186068</v>
+      </c>
+      <c r="H23">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J23">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.4229803333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.268941</v>
+      </c>
+      <c r="O23">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="P23">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="Q23">
+        <v>0.07870310466266667</v>
+      </c>
+      <c r="R23">
+        <v>0.708327941964</v>
+      </c>
+      <c r="S23">
+        <v>0.0007291053714160826</v>
+      </c>
+      <c r="T23">
+        <v>0.0007291053714160828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.186068</v>
+      </c>
+      <c r="H24">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J24">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.749056666666668</v>
+      </c>
+      <c r="N24">
+        <v>29.24717</v>
+      </c>
+      <c r="O24">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="P24">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="Q24">
+        <v>1.813987475853333</v>
+      </c>
+      <c r="R24">
+        <v>16.32588728268</v>
+      </c>
+      <c r="S24">
+        <v>0.01680477559297029</v>
+      </c>
+      <c r="T24">
+        <v>0.01680477559297029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.186068</v>
+      </c>
+      <c r="H25">
+        <v>0.5582039999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="J25">
+        <v>0.1098892748481946</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.67565866666666</v>
+      </c>
+      <c r="N25">
+        <v>65.02697599999999</v>
+      </c>
+      <c r="O25">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="P25">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="Q25">
+        <v>4.033146456789332</v>
+      </c>
+      <c r="R25">
+        <v>36.29831811110399</v>
+      </c>
+      <c r="S25">
+        <v>0.03736305902996647</v>
+      </c>
+      <c r="T25">
+        <v>0.03736305902996648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.195893</v>
+      </c>
+      <c r="H26">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J26">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.330485333333333</v>
+      </c>
+      <c r="N26">
+        <v>6.991456</v>
+      </c>
+      <c r="O26">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="P26">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="Q26">
+        <v>0.4565257634026667</v>
+      </c>
+      <c r="R26">
+        <v>4.108731870624001</v>
+      </c>
+      <c r="S26">
+        <v>0.00422925356900951</v>
+      </c>
+      <c r="T26">
+        <v>0.004229253569009511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.195893</v>
+      </c>
+      <c r="H27">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J27">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>29.178763</v>
+      </c>
+      <c r="N27">
+        <v>87.53628900000001</v>
+      </c>
+      <c r="O27">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="P27">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="Q27">
+        <v>5.715915420359001</v>
+      </c>
+      <c r="R27">
+        <v>51.44323878323101</v>
+      </c>
+      <c r="S27">
+        <v>0.05295222664221844</v>
+      </c>
+      <c r="T27">
+        <v>0.05295222664221845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.195893</v>
+      </c>
+      <c r="H28">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J28">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.3937893333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.181368</v>
+      </c>
+      <c r="O28">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="P28">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="Q28">
+        <v>0.07714057387466668</v>
+      </c>
+      <c r="R28">
+        <v>0.6942651648720001</v>
+      </c>
+      <c r="S28">
+        <v>0.0007146300899717636</v>
+      </c>
+      <c r="T28">
+        <v>0.0007146300899717638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.45619179945392</v>
-      </c>
-      <c r="H21">
-        <v>0.45619179945392</v>
-      </c>
-      <c r="I21">
-        <v>0.4032500646539642</v>
-      </c>
-      <c r="J21">
-        <v>0.4032500646539642</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>19.8588564660058</v>
-      </c>
-      <c r="N21">
-        <v>19.8588564660058</v>
-      </c>
-      <c r="O21">
-        <v>0.3302550848388138</v>
-      </c>
-      <c r="P21">
-        <v>0.3302550848388138</v>
-      </c>
-      <c r="Q21">
-        <v>9.059447466324301</v>
-      </c>
-      <c r="R21">
-        <v>9.059447466324301</v>
-      </c>
-      <c r="S21">
-        <v>0.1331753843135521</v>
-      </c>
-      <c r="T21">
-        <v>0.1331753843135521</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.195893</v>
+      </c>
+      <c r="H29">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J29">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.4229803333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.268941</v>
+      </c>
+      <c r="O29">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="P29">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="Q29">
+        <v>0.08285888643766667</v>
+      </c>
+      <c r="R29">
+        <v>0.7457299779390001</v>
+      </c>
+      <c r="S29">
+        <v>0.0007676045237376157</v>
+      </c>
+      <c r="T29">
+        <v>0.000767604523737616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.195893</v>
+      </c>
+      <c r="H30">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J30">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.749056666666668</v>
+      </c>
+      <c r="N30">
+        <v>29.24717</v>
+      </c>
+      <c r="O30">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="P30">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="Q30">
+        <v>1.909771957603334</v>
+      </c>
+      <c r="R30">
+        <v>17.18794761843001</v>
+      </c>
+      <c r="S30">
+        <v>0.01769212280044784</v>
+      </c>
+      <c r="T30">
+        <v>0.01769212280044785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.195893</v>
+      </c>
+      <c r="H31">
+        <v>0.5876790000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="J31">
+        <v>0.1156917885817948</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.67565866666666</v>
+      </c>
+      <c r="N31">
+        <v>65.02697599999999</v>
+      </c>
+      <c r="O31">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="P31">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="Q31">
+        <v>4.246109803189333</v>
+      </c>
+      <c r="R31">
+        <v>38.214988228704</v>
+      </c>
+      <c r="S31">
+        <v>0.03933595095640961</v>
+      </c>
+      <c r="T31">
+        <v>0.03933595095640962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H32">
+        <v>1.605008</v>
+      </c>
+      <c r="I32">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J32">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.330485333333333</v>
+      </c>
+      <c r="N32">
+        <v>6.991456</v>
+      </c>
+      <c r="O32">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="P32">
+        <v>0.03655621216383393</v>
+      </c>
+      <c r="Q32">
+        <v>1.246815867960889</v>
+      </c>
+      <c r="R32">
+        <v>11.221342811648</v>
+      </c>
+      <c r="S32">
+        <v>0.01155049918797305</v>
+      </c>
+      <c r="T32">
+        <v>0.01155049918797305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H33">
+        <v>1.605008</v>
+      </c>
+      <c r="I33">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J33">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>29.178763</v>
+      </c>
+      <c r="N33">
+        <v>87.53628900000001</v>
+      </c>
+      <c r="O33">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="P33">
+        <v>0.4577008212193115</v>
+      </c>
+      <c r="Q33">
+        <v>15.61071601503467</v>
+      </c>
+      <c r="R33">
+        <v>140.496444135312</v>
+      </c>
+      <c r="S33">
+        <v>0.1446176354414123</v>
+      </c>
+      <c r="T33">
+        <v>0.1446176354414123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H34">
+        <v>1.605008</v>
+      </c>
+      <c r="I34">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J34">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.3937893333333333</v>
+      </c>
+      <c r="N34">
+        <v>1.181368</v>
+      </c>
+      <c r="O34">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="P34">
+        <v>0.006177016525822971</v>
+      </c>
+      <c r="Q34">
+        <v>0.2106783434382222</v>
+      </c>
+      <c r="R34">
+        <v>1.896105090944</v>
+      </c>
+      <c r="S34">
+        <v>0.001951723664526723</v>
+      </c>
+      <c r="T34">
+        <v>0.001951723664526724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H35">
+        <v>1.605008</v>
+      </c>
+      <c r="I35">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J35">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.4229803333333333</v>
+      </c>
+      <c r="N35">
+        <v>1.268941</v>
+      </c>
+      <c r="O35">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="P35">
+        <v>0.006634909297775398</v>
+      </c>
+      <c r="Q35">
+        <v>0.2262956062808889</v>
+      </c>
+      <c r="R35">
+        <v>2.036660456528</v>
+      </c>
+      <c r="S35">
+        <v>0.002096401949763499</v>
+      </c>
+      <c r="T35">
+        <v>0.002096401949763499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H36">
+        <v>1.605008</v>
+      </c>
+      <c r="I36">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J36">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>9.749056666666668</v>
+      </c>
+      <c r="N36">
+        <v>29.24717</v>
+      </c>
+      <c r="O36">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="P36">
+        <v>0.1529246199520842</v>
+      </c>
+      <c r="Q36">
+        <v>5.215771314151112</v>
+      </c>
+      <c r="R36">
+        <v>46.94194182736</v>
+      </c>
+      <c r="S36">
+        <v>0.04831889285086108</v>
+      </c>
+      <c r="T36">
+        <v>0.04831889285086109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.5350026666666666</v>
+      </c>
+      <c r="H37">
+        <v>1.605008</v>
+      </c>
+      <c r="I37">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="J37">
+        <v>0.3159654270581206</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>21.67565866666666</v>
+      </c>
+      <c r="N37">
+        <v>65.02697599999999</v>
+      </c>
+      <c r="O37">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="P37">
+        <v>0.3400064208411719</v>
+      </c>
+      <c r="Q37">
+        <v>11.59653518842311</v>
+      </c>
+      <c r="R37">
+        <v>104.368816695808</v>
+      </c>
+      <c r="S37">
+        <v>0.107430273963584</v>
+      </c>
+      <c r="T37">
+        <v>0.107430273963584</v>
       </c>
     </row>
   </sheetData>
